--- a/biology/Zoologie/Cetoniinae/Cetoniinae.xlsx
+++ b/biology/Zoologie/Cetoniinae/Cetoniinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cetoniinae sont une sous-famille d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae.
 Les Cetoniinae sont représentés en Europe par plus de trente espèces différentes, de couleurs habituellement vives et à reflets métalliques. Il en existe dans le monde plus de 4 000 espèces.
@@ -512,7 +524,9 @@
           <t>Particularités anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le clypeus est échancré latéralement en avant des yeux.
 Le clypeus recouvre à la vue dorsale le labre et les mandibules.
@@ -545,7 +559,9 @@
           <t>Dimorphisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour le genre Cetonia Gory &amp; Percheron, 1833, les mâles ont les derniers sternites abdominaux avec une nette dépression centrale.
 Pour le genre Protaetia Burmeister, 1832, le dernier sternite abdominal des mâles a la ponctuation effacée en son milieu.</t>
@@ -576,7 +592,9 @@
           <t>Autres particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sauf chez les Cetoniidae, Trichiinae, les élytres ne s’ouvrent pas pour le vol mais laissent passer les ailes en se soulevant légèrement.</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les formes adultes se nourrissent d'aliments riches en sucres rapides : nectar, fruits murs, sève. Leur activité est essentiellement diurne.
 Les larves se développent dans les matières végétales en décomposition, et tout particulièrement dans le terreau des arbres creux. On trouve également les larves de Cetonia dans les tas de compost.</t>
@@ -637,9 +657,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Wikispecies, il y a 12 tribus:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Wikispecies, il y a 12 tribus:
 Cetoniini – Cremastocheilini – Diplognathini – Goliathini – Gymnetini – Phaedimini – Schizorhinini – Stenotarsiini – Taenioderini – Trichiini – Valgini – Xiphoscelidini
 Tribu Cetoniini
 Sous-tribu des Cetoniina (Leach, 1815)
@@ -798,9 +820,43 @@
 Lansbergia (Ritsema 1888)
 Protoclita Krikken, 1978
 Pygora
-Rhabdotis
-Genres rencontrés en Europe
-Aethiessa Burmeister 1842
+Rhabdotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cetoniinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cetoniinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aethiessa Burmeister 1842
 Cetonia Fabricius 1775
 Heterocnemis Albers 1852
 Oxythyrea Mulsant 1842 - dont Oxythyrea funesta, la Cétoine grise
